--- a/biology/Botanique/Grigori_Potanine/Grigori_Potanine.xlsx
+++ b/biology/Botanique/Grigori_Potanine/Grigori_Potanine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grigori Nikolaïevitch Potanine (en russe : Григорий Николаевич Потанин, né le 22 septembre 1835 (4 octobre dans le calendrier grégorien) dans l'oblast d'Omsk, mort le 30 juin 1920 à Tomsk, est un ethnographe et botaniste russe. C'est un pionnier de l'exploration de l'Asie centrale de l'époque victorienne et il est le premier à avoir catalogué plusieurs plantes indigènes à cette région. En Russie, Potanine est un auteur et militant politique impliqué dans la cause du séparatisme sibérien.
 Il était marié à Aleksandra Potanina, elle aussi exploratrice.
@@ -512,7 +524,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a laissé son nom à la rue Potaninskaïa à Novossibirsk (Russie), au glacier Potanine en Mongolie, et à l'astéroïde (9915) Potanin.
 Le cratère vénusien Potanina est quant à lui nommé d'après sa conjointe, Aleksandra Potanina.
